--- a/document/导入资料/基金/新建 Microsoft Excel 工作表.xlsx
+++ b/document/导入资料/基金/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA86619-445C-41A2-B664-37725ACDEFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4200" yWindow="3075" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,759 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="248">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>指标名称</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>金额（万元）</t>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+  </si>
+  <si>
+    <t>国家重点研发计划</t>
+  </si>
+  <si>
+    <t>马嘉璧</t>
+  </si>
+  <si>
+    <t>二次有机气溶胶形成的关键物理化学过程</t>
+  </si>
+  <si>
+    <t>胡洁</t>
+  </si>
+  <si>
+    <t>飞秒激光精密制造应用基础研究</t>
+  </si>
+  <si>
+    <t>黄强</t>
+  </si>
+  <si>
+    <t>仿灵长类高机动运动机器人</t>
+  </si>
+  <si>
+    <t>蒋志宏</t>
+  </si>
+  <si>
+    <t>人机互助型冗余灵巧作业机器人关键技术与应用验证</t>
+  </si>
+  <si>
+    <t>林程</t>
+  </si>
+  <si>
+    <t>高性能纯电动大客车动力平台关键技术及整车应用</t>
+  </si>
+  <si>
+    <t>杨健</t>
+  </si>
+  <si>
+    <t>混合现实引导B型主动脉夹层精准腔内修复技术研究</t>
+  </si>
+  <si>
+    <t>李向梅</t>
+  </si>
+  <si>
+    <t>合成树脂专用新型高效阻燃技术开发</t>
+  </si>
+  <si>
+    <t>盛新庆</t>
+  </si>
+  <si>
+    <t>复杂电磁环境高性能应用软件系统研制及应用示范</t>
+  </si>
+  <si>
+    <t>陈杰</t>
+  </si>
+  <si>
+    <t>兼职6120100177</t>
+  </si>
+  <si>
+    <t>国家科学化训练基地建设关键技术研究与示范</t>
+  </si>
+  <si>
+    <t>郭树理</t>
+  </si>
+  <si>
+    <t>老年、残障特殊人群健康服务与远程健康监测关键技术及重要标准研究</t>
+  </si>
+  <si>
+    <t>夏元清</t>
+  </si>
+  <si>
+    <t>数据驱动的云数据中心智能管理技术与平台（共性关键技术类）</t>
+  </si>
+  <si>
+    <t>胡昌振</t>
+  </si>
+  <si>
+    <t>网络系统安全度量方法与指标体系</t>
+  </si>
+  <si>
+    <t>黄华</t>
+  </si>
+  <si>
+    <t>支持大数据理解的头戴式无障碍呈现技术、装备与云服务平台</t>
+  </si>
+  <si>
+    <t>宋遒志</t>
+  </si>
+  <si>
+    <t>负重及搬移托举助力外骨骼机器人关键技术研究及典型应用验证</t>
+  </si>
+  <si>
+    <t>唐晓英</t>
+  </si>
+  <si>
+    <t>新型数字诊疗装备生物学效应评估理论与方法研究</t>
+  </si>
+  <si>
+    <t>闫天翼</t>
+  </si>
+  <si>
+    <t>闭环生物反馈和无创深部电刺激调控协同系统研发与帕金森病治疗应用研究</t>
+  </si>
+  <si>
+    <t>钱新明</t>
+  </si>
+  <si>
+    <t>典型危险化学品爆炸机理及事故防控关键技术研究及示范</t>
+  </si>
+  <si>
+    <t>魏一鸣</t>
+  </si>
+  <si>
+    <t>气候变化经济影响综合评估模式研究</t>
+  </si>
+  <si>
+    <t>NSFC重大研发计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路翠翠</t>
+  </si>
+  <si>
+    <t>芯片上金属纳米颗粒-光子晶体复合微腔的制备及应用研究</t>
+  </si>
+  <si>
+    <t>张向东</t>
+  </si>
+  <si>
+    <t>基于光学微纳结构奇异点的光场手征特性调控及分子手性探测</t>
+  </si>
+  <si>
+    <t>庞树峰</t>
+  </si>
+  <si>
+    <t>红外光谱研究气溶胶颗粒爆发式增长与环境相对湿度的相关性</t>
+  </si>
+  <si>
+    <t>仿人机器人的非结构环境自适应运动的理论与方法</t>
+  </si>
+  <si>
+    <t>韩恺</t>
+  </si>
+  <si>
+    <t>环境属性和燃料属性对液滴蒸发过程的协同作用机理</t>
+  </si>
+  <si>
+    <t>黄彪</t>
+  </si>
+  <si>
+    <t>空化湍流结构的时空多尺度演化及流动机理研究</t>
+  </si>
+  <si>
+    <t>李佳峰</t>
+  </si>
+  <si>
+    <t>受限空间内预混燃烧诱导射流点火的机理研究</t>
+  </si>
+  <si>
+    <t>马宏宾</t>
+  </si>
+  <si>
+    <t>基于数据驱动适应学习的人-机-环境多模态感知与自然交互</t>
+  </si>
+  <si>
+    <t>李果</t>
+  </si>
+  <si>
+    <t>融合多源异构大数据的电信产品配置及个性化营销策略研究</t>
+  </si>
+  <si>
+    <t>冉伦</t>
+  </si>
+  <si>
+    <t>大数据驱动的服务运营系统性优化与管理——以新能源汽车为例</t>
+  </si>
+  <si>
+    <t>王兆华</t>
+  </si>
+  <si>
+    <t>基于多源异构数据的城镇居民低碳消费行为机理、价值发现及管理决策研究</t>
+  </si>
+  <si>
+    <t>国家重大科研仪器研制项目</t>
+  </si>
+  <si>
+    <t>马少鹏</t>
+  </si>
+  <si>
+    <t>复杂结构失稳特征的长时高速高分辨测量仪器研制</t>
+  </si>
+  <si>
+    <t>吴景龙</t>
+  </si>
+  <si>
+    <t>触觉感知脑功能拓扑图测量仪</t>
+  </si>
+  <si>
+    <t>董毅</t>
+  </si>
+  <si>
+    <t>双波长光调频连续波分布式光纤应变在线测量仪研制</t>
+  </si>
+  <si>
+    <t>高春清</t>
+  </si>
+  <si>
+    <t>基于1.645μm全固态单频脉冲激光器的人眼安全远程相干激光测风雷达</t>
+  </si>
+  <si>
+    <t>李艳秋</t>
+  </si>
+  <si>
+    <t>新型多功能斯托克斯-穆勒成像偏振仪</t>
+  </si>
+  <si>
+    <t>王涌天</t>
+  </si>
+  <si>
+    <t>符合人眼观察习惯的高性能光场近眼显示系统</t>
+  </si>
+  <si>
+    <t>赵维谦</t>
+  </si>
+  <si>
+    <t>面向跨尺度飞秒激光加工的微区形态性能原位监测与分析系统</t>
+  </si>
+  <si>
+    <t>龙腾</t>
+  </si>
+  <si>
+    <t>面向动物迁飞机理分析的高分辨多维协同雷达测量仪</t>
+  </si>
+  <si>
+    <t>徐伟</t>
+  </si>
+  <si>
+    <t>复杂体系中蛋白及其复合体三维结构解析质谱仪研制</t>
+  </si>
+  <si>
+    <t>NSFC重大项目</t>
+  </si>
+  <si>
+    <t>梅宏</t>
+  </si>
+  <si>
+    <t>基于互联网群体智能的软件开发方法研究</t>
+  </si>
+  <si>
+    <t>NSFC重点项目</t>
+  </si>
+  <si>
+    <t>王战军</t>
+  </si>
+  <si>
+    <t>“互联网+”时代研究生教育管理变革与创新研究</t>
+  </si>
+  <si>
+    <t>姚裕贵</t>
+  </si>
+  <si>
+    <t>大能隙拓扑绝缘体的制备、表征和物性调控研究</t>
+  </si>
+  <si>
+    <t>杨国昱</t>
+  </si>
+  <si>
+    <t>硼镍(铜)钨氧合团簇的缺位导向合成、结构及性能</t>
+  </si>
+  <si>
+    <t>胡更开</t>
+  </si>
+  <si>
+    <t>弹性波超材料动态表征理论及波动控制</t>
+  </si>
+  <si>
+    <t>胡海岩</t>
+  </si>
+  <si>
+    <t>空间结构在轨自主组装的动态控制与地面实验</t>
+  </si>
+  <si>
+    <t>梁军</t>
+  </si>
+  <si>
+    <t>炭化复合材料细观烧蚀理论研究</t>
+  </si>
+  <si>
+    <t>王成</t>
+  </si>
+  <si>
+    <t>危险化学品爆炸成因、传播和破坏机理研究</t>
+  </si>
+  <si>
+    <t>机器人宇航员空间站仿人作业理论与方法</t>
+  </si>
+  <si>
+    <t>王晓力</t>
+  </si>
+  <si>
+    <t>纳米发电机多级织构界面接触/摩擦起电机理与调控研</t>
+  </si>
+  <si>
+    <t>矢量涡旋光束的生成、传输及畸变校正技术研究</t>
+  </si>
+  <si>
+    <t>郝群</t>
+  </si>
+  <si>
+    <t>复杂光滑表面形变的瞬态干涉测量理论与方法研究</t>
+  </si>
+  <si>
+    <t>邱丽荣</t>
+  </si>
+  <si>
+    <t>高空间分辨激光差动共焦拉曼光谱-LIBS-质谱物质组分测量及形态成像方法研究</t>
+  </si>
+  <si>
+    <t>王国玉</t>
+  </si>
+  <si>
+    <t>空化载荷作用下先进复合材料水翼动态响应及其细观结构优化</t>
+  </si>
+  <si>
+    <t>杨策</t>
+  </si>
+  <si>
+    <t>离心压气机失速先兆发生位置与进/出口边界的内在联系及抑制方法研究</t>
+  </si>
+  <si>
+    <t>杨苏辉</t>
+  </si>
+  <si>
+    <t>基于啁啾调幅涡旋场水下目标激光探测的新原理、新方法、新技术研究</t>
+  </si>
+  <si>
+    <t>丁泽刚</t>
+  </si>
+  <si>
+    <t>月球与近地小天体的地基雷达天文学成像理论与关键技术研究</t>
+  </si>
+  <si>
+    <t>面向复杂工业制造过程的智能感知、处理、决策与控制理论与方法</t>
+  </si>
+  <si>
+    <t>李春</t>
+  </si>
+  <si>
+    <t>微生物合成萜烯化合物过程中的跨膜转运与代谢传质强</t>
+  </si>
+  <si>
+    <t>赵之平</t>
+  </si>
+  <si>
+    <t>选择性渗透VOCs的化工分离新膜材料多层次微结构设计与性能调控制备</t>
+  </si>
+  <si>
+    <t>陈朗</t>
+  </si>
+  <si>
+    <t>含铝炸药爆轰反应机理和能量释放规律研究</t>
+  </si>
+  <si>
+    <t>崔利荣</t>
+  </si>
+  <si>
+    <t>系统可靠性建模与分析的理论与方法研究</t>
+  </si>
+  <si>
+    <t>NSFC面上项目</t>
+  </si>
+  <si>
+    <t>刘跟前</t>
+  </si>
+  <si>
+    <t>偏微分算子的逆谱问题</t>
+  </si>
+  <si>
+    <t>席福宝</t>
+  </si>
+  <si>
+    <t>切换跳扩散过程及其应用</t>
+  </si>
+  <si>
+    <t>朱蓉禅</t>
+  </si>
+  <si>
+    <t>带有奇异噪声的随机偏微分方程</t>
+  </si>
+  <si>
+    <t>李庆娜</t>
+  </si>
+  <si>
+    <t>非度量多维标度问题的矩阵优化模型与算法</t>
+  </si>
+  <si>
+    <t>王国亮</t>
+  </si>
+  <si>
+    <t>递归多项式的根几何及其应用</t>
+  </si>
+  <si>
+    <t>姜海燕</t>
+  </si>
+  <si>
+    <t>非平衡Green函数法和Wigner分布函数法在量子输运中的应用</t>
+  </si>
+  <si>
+    <t>张军勇</t>
+  </si>
+  <si>
+    <t>锥奇性空间上的波动方程及其调和分析问题</t>
+  </si>
+  <si>
+    <t>边东芬</t>
+  </si>
+  <si>
+    <t>磁流体力学方程组的稳定性和不稳定性研究</t>
+  </si>
+  <si>
+    <t>史福贵</t>
+  </si>
+  <si>
+    <t>模糊凸空间理论的研究</t>
+  </si>
+  <si>
+    <t>刘庆晖</t>
+  </si>
+  <si>
+    <t>准周期薛定谔算子谱的重分形分析</t>
+  </si>
+  <si>
+    <t>熊黎明</t>
+  </si>
+  <si>
+    <t>禁用子图与图的性质及参数关系研究</t>
+  </si>
+  <si>
+    <t>邢燕霞</t>
+  </si>
+  <si>
+    <t>介观体系非平衡交流输运中的量子纠缠熵</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>內秉拓扑超导的材料实现的理论研究</t>
+  </si>
+  <si>
+    <t>赵清</t>
+  </si>
+  <si>
+    <t>物理测量中的Wirtinger flow相位恢复与应用</t>
+  </si>
+  <si>
+    <t>曹茂盛</t>
+  </si>
+  <si>
+    <t>磁性石墨烯构筑及高温电磁特性研究</t>
+  </si>
+  <si>
+    <t>刘铖铖</t>
+  </si>
+  <si>
+    <t>若干铋基材料的拓扑物性研究</t>
+  </si>
+  <si>
+    <t>江兆潭</t>
+  </si>
+  <si>
+    <t>结构化磷烯系统的等离激元及光电性质研究</t>
+  </si>
+  <si>
+    <t>王锋</t>
+  </si>
+  <si>
+    <t>密度泛函理论发展及其在原子碰撞模型中的应用</t>
+  </si>
+  <si>
+    <t>董立泉</t>
+  </si>
+  <si>
+    <t>光圈景深联合延拓成像方法与关键技术研究</t>
+  </si>
+  <si>
+    <t>邹健</t>
+  </si>
+  <si>
+    <t>非平衡库下小系统量子热力学性质研究</t>
+  </si>
+  <si>
+    <t>冯万祥</t>
+  </si>
+  <si>
+    <t>自旋非共线反铁磁中新奇磁光效应及其多场调控研究</t>
+  </si>
+  <si>
+    <t>赵伟瑞</t>
+  </si>
+  <si>
+    <t>分块主镜共相位误差的全口径同步检测方法研究</t>
+  </si>
+  <si>
+    <t>董冰</t>
+  </si>
+  <si>
+    <t>高速飞行器共形窗口动态像差的双模自适应校正研究</t>
+  </si>
+  <si>
+    <t>邵彬</t>
+  </si>
+  <si>
+    <t>固态量子开放系统的量子最优控制研究</t>
+  </si>
+  <si>
+    <t>杨智</t>
+  </si>
+  <si>
+    <t>非贵金属铝均相催化有机反应的研究</t>
+  </si>
+  <si>
+    <t>胡长文</t>
+  </si>
+  <si>
+    <t>多铌钒氧簇在DMMP和CEES降解中的碱催化与氧化催化功能调控</t>
+  </si>
+  <si>
+    <t>陈南</t>
+  </si>
+  <si>
+    <t>梯度掺杂碳基纳米线/阵列用于湿气发电</t>
+  </si>
+  <si>
+    <t>周智明</t>
+  </si>
+  <si>
+    <t>稠环三氮唑类钝感高能离子盐炸药的设计、合成及性能研究</t>
+  </si>
+  <si>
+    <t>王金亮</t>
+  </si>
+  <si>
+    <t>有机小分子深红/近红外荧光材料的合成及其在生物荧光成像方面的应用</t>
+  </si>
+  <si>
+    <t>张绍文</t>
+  </si>
+  <si>
+    <t>基于主方程的通用唯象动力学方法及其在有害芳香物降解中的应用</t>
+  </si>
+  <si>
+    <t>陈世稆</t>
+  </si>
+  <si>
+    <t>硫微生物排放中酶催化反应机理的理论研究</t>
+  </si>
+  <si>
+    <t>冯霄</t>
+  </si>
+  <si>
+    <t>三维共价有机骨架材料的构筑及其在神经毒剂荧光检测中的应用研究</t>
+  </si>
+  <si>
+    <t>屈锋</t>
+  </si>
+  <si>
+    <t>基于多模式毛细管电泳的核酸适配体三维度筛选策略研究</t>
+  </si>
+  <si>
+    <t>迟瑛楠</t>
+  </si>
+  <si>
+    <t>双亲性孔结构多金属氧簇的设计合成与催化性能</t>
+  </si>
+  <si>
+    <t>陈甫雪</t>
+  </si>
+  <si>
+    <t>三唑并四嗪类高能钝感含能化合物合成</t>
+  </si>
+  <si>
+    <t>黄木华</t>
+  </si>
+  <si>
+    <t>多孔超分子离子骨架材料（SPINs）：新型有机多孔材料的实用制备及温室气体吸附研究</t>
+  </si>
+  <si>
+    <t>陈磅宽</t>
+  </si>
+  <si>
+    <t>“嵌段”式双极性共轭大环化合物的构建及性能研究</t>
+  </si>
+  <si>
+    <t>李全松</t>
+  </si>
+  <si>
+    <t>光致变色有机硼化合物反应机理的理论研究</t>
+  </si>
+  <si>
+    <t>肖文德</t>
+  </si>
+  <si>
+    <t>巴基碗分子在惰性表面的自组装结构和物性研究</t>
+  </si>
+  <si>
+    <t>李晓芳</t>
+  </si>
+  <si>
+    <t>金属有机化合物置换型荧光探针荧光检测烯烃配位聚合反应的催化活性物种</t>
+  </si>
+  <si>
+    <t>张志攀</t>
+  </si>
+  <si>
+    <t>石墨相氮化碳/共轭导电聚合物网络复合材料可控合成及作为锂氧电池氧电极性能研究</t>
+  </si>
+  <si>
+    <t>冯增国</t>
+  </si>
+  <si>
+    <t>γ-环糊精与乙烯基嵌段共聚物非适配包结产物制备研究</t>
+  </si>
+  <si>
+    <t>吕红金</t>
+  </si>
+  <si>
+    <t>混合过渡金属取代多金属氧酸盐的设计、合成及其光驱动水分解性能研究</t>
+  </si>
+  <si>
+    <t>单离子分散多金属氧簇的设计组装与催化特性</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>氧化还原活性金属有机框架材料的设计合成及光诱导醇氧化反应研究</t>
+  </si>
+  <si>
+    <t>马小莉</t>
+  </si>
+  <si>
+    <t>绿色有机铝催化对甲苯磺酰腙相关反应的研究</t>
+  </si>
+  <si>
+    <t>邵会波</t>
+  </si>
+  <si>
+    <t>扫描电化学显微镜方法研究自组装膜表面氢键协同作用</t>
+  </si>
+  <si>
+    <t>张存中</t>
+  </si>
+  <si>
+    <t>金属锂电化学沉积溶解过程行为与机理研究</t>
+  </si>
+  <si>
+    <t>曹敏花</t>
+  </si>
+  <si>
+    <t>硒化钼本征电子结构调控及其电催化性能研究</t>
+  </si>
+  <si>
+    <t>薛敏</t>
+  </si>
+  <si>
+    <t>对过敏原蛋白有亲和性的温敏性纳米水凝胶的制备及识别机理研究</t>
+  </si>
+  <si>
+    <t>基于CE-MS及结合位点导向的核酸适配体Non-PCR直接测序筛选方法研究</t>
+  </si>
+  <si>
+    <t>谢海燕</t>
+  </si>
+  <si>
+    <t>协同响应激活的高特异性肿瘤诊疗系统</t>
+  </si>
+  <si>
+    <t>石建兵</t>
+  </si>
+  <si>
+    <t>具有聚集诱导发光性质的近红外多芳基吡咯衍生物制备及其构效关系</t>
+  </si>
+  <si>
+    <t>李生华</t>
+  </si>
+  <si>
+    <t>含能三维阳离子金属有机骨架性能调控新方法研究</t>
+  </si>
+  <si>
+    <t>何春林</t>
+  </si>
+  <si>
+    <t>多氮杂环偕二硝甲基含能化合物的合成与性能研究</t>
+  </si>
+  <si>
+    <t>苏岳锋</t>
+  </si>
+  <si>
+    <t>锂离子电池高镍系层状正极材料结构和热稳定性的优化设计</t>
+  </si>
+  <si>
+    <t>马玉荣</t>
+  </si>
+  <si>
+    <t>鸟嘌呤的生物矿化及其仿生矿化合成</t>
+  </si>
+  <si>
+    <t>张韫宏</t>
+  </si>
+  <si>
+    <t>直接测量大气细颗粒物pH值的原位表面增强拉曼光谱研究方法</t>
+  </si>
+  <si>
+    <t>赵欣</t>
+  </si>
+  <si>
+    <t>海面风场-海冰-海浪非线性相互作用的机理与模式研究</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +779,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF4C5154"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF1F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +831,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1137,3138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6120130133</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6120120123</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6120103177</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6120104375</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6120100264</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6120104704</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6120104218</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6120104197</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6120103778</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6120103806</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6120100873</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6120120009</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6120103656</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6120100514</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6120110089</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6120100949</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6120104637</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6120180019</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6120110088</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6120103993</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6120103177</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6120104759</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6120130044</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6120150036</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6120104717</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6120104773</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6120103975</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6120104031</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6120104050</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6120140095</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6120170015</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6120102980</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6120104376</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6120100354</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6120104331</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6120100563</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6120120027</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6120160099</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7920161013</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6120110087</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6120104723</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6120101186</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6120104463</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6120160018</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6120103583</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6120104375</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6120103325</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6120102980</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6120100440</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="2">
+        <v>6120104523</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="2">
+        <v>6120103223</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6120103178</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="2">
+        <v>6120103289</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6120104610</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6120103806</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6120103928</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6120104133</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6120100913</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6120103547</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6120103308</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6120101933</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H63" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="2">
+        <v>6120120135</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6120120039</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6120140103</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6120103065</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6120110067</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6120160118</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6120103230</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6120103315</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6120103376</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="2">
+        <v>6120104857</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6120103904</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6120103907</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6120103725</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H76" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>16</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="2">
+        <v>6120130128</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6120104025</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>18</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6120103700</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>19</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="2">
+        <v>6120103083</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>20</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="2">
+        <v>6120101139</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>21</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6120120097</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>22</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="2">
+        <v>6120103723</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H83" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="2">
+        <v>6120120070</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6120101129</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>25</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6120104615</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H86" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>26</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6120103659</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>27</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="2">
+        <v>6120120111</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>28</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>29</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="2">
+        <v>6120120010</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="2">
+        <v>6120103459</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H91" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>31</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="2">
+        <v>6120104848</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>32</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="2">
+        <v>6120130111</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H93" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>33</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" s="2">
+        <v>6120103917</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>34</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="2">
+        <v>6120104471</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>35</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="2">
+        <v>6120104373</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="173.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>36</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="2">
+        <v>6120120007</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>37</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="2">
+        <v>6120160107</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>38</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" s="2">
+        <v>6120130012</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H99" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>39</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="2">
+        <v>6120160122</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H100" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>40</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="2">
+        <v>6120104498</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="173.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="2">
+        <v>6120120040</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H102" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>42</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="2">
+        <v>6120100615</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H103" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="2">
+        <v>6120180003</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H104" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>44</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="2">
+        <v>6120103659</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="2">
+        <v>6120104735</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>46</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="2">
+        <v>6120104624</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H107" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>47</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6120104189</v>
+      </c>
+      <c r="F108" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>48</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="2">
+        <v>6120103499</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H109" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>49</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="2">
+        <v>6120104618</v>
+      </c>
+      <c r="F110" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H110" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>50</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="2">
+        <v>6120104453</v>
+      </c>
+      <c r="F111" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H111" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>51</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="2">
+        <v>6120103917</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>52</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="2">
+        <v>6120103862</v>
+      </c>
+      <c r="F113" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H113" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="138.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>53</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="2">
+        <v>6120104715</v>
+      </c>
+      <c r="F114" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H114" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="2">
+        <v>6120104808</v>
+      </c>
+      <c r="F115" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H115" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>55</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="2">
+        <v>6120180017</v>
+      </c>
+      <c r="F116" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H116" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>56</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="2">
+        <v>6120103003</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H117" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>57</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="2">
+        <v>6120170096</v>
+      </c>
+      <c r="F118" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="121.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>58</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6120100687</v>
+      </c>
+      <c r="F119" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>59</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="2">
+        <v>6120160101</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H120" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>